--- a/Documents/PC104.xlsx
+++ b/Documents/PC104.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edesa\Desktop\n-Lotusat\lotusat\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C3242D-3498-4B2A-8504-F517A3DF7DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08BB4F2-599E-4F4D-A801-802240F6131A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t xml:space="preserve">                                                        H1                                                          </t>
   </si>
@@ -145,16 +146,60 @@
   </si>
   <si>
     <t>CSTB1</t>
+  </si>
+  <si>
+    <t>Diğer Görevler</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>https://www.cubesatshop.com/product/isis-on-board-computer/</t>
+  </si>
+  <si>
+    <t>https://www.satcatalog.com/component/cubesat-on-board-computer/</t>
+  </si>
+  <si>
+    <t>https://commons.erau.edu/cgi/viewcontent.cgi?article=1101&amp;context=edt</t>
+  </si>
+  <si>
+    <t>https://digitalcommons.usu.edu/cgi/viewcontent.cgi?article=5135&amp;context=smallsat</t>
+  </si>
+  <si>
+    <t>https://artes.esa.int/memory-control-subsystem-low-earth-orbit-applications-artes-4g035</t>
+  </si>
+  <si>
+    <t>https://uknowledge.uky.edu/cgi/viewcontent.cgi?article=1575&amp;context=gradschool_theses</t>
+  </si>
+  <si>
+    <t>https://www.techtarget.com/searchstorage/definition/NOR-flash-memory</t>
+  </si>
+  <si>
+    <t>https://core.ac.uk/download/pdf/17029473.pdf</t>
+  </si>
+  <si>
+    <t>http://www.pumpkininc.com/content/doc/press/Pumpkin_CSWSDC2007.pdf</t>
+  </si>
+  <si>
+    <t>https://www.eoportal.org/satellite-missions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,10 +252,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -218,8 +264,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -240,15 +288,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -263,7 +311,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10210800" y="1097280"/>
+          <a:off x="10218420" y="739140"/>
           <a:ext cx="3268980" cy="2438400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -410,6 +458,56 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF293E68-28BE-41B1-99FB-B00B7528CFB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="4754880"/>
+          <a:ext cx="4244340" cy="3138401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -678,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +791,7 @@
     <col min="18" max="18" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -712,7 +810,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -747,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -773,14 +871,14 @@
         <v>2</v>
       </c>
       <c r="L3" s="2"/>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
       <c r="R3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -809,7 +907,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C28" si="2">C4+2</f>
@@ -833,7 +931,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="1">
         <f t="shared" si="2"/>
@@ -862,7 +960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="2"/>
@@ -893,7 +991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="2"/>
@@ -922,7 +1020,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="2"/>
@@ -953,7 +1051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="1">
         <f t="shared" si="2"/>
@@ -982,7 +1080,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="1">
         <f t="shared" si="2"/>
@@ -1008,7 +1106,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="1">
         <f t="shared" si="2"/>
@@ -1042,7 +1140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="1">
         <f t="shared" si="2"/>
@@ -1070,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="1">
         <f t="shared" si="2"/>
@@ -1098,7 +1196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="1">
         <f t="shared" si="2"/>
@@ -1126,7 +1224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="1">
         <f t="shared" si="2"/>
@@ -1154,7 +1252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="1">
         <f t="shared" si="2"/>
@@ -1182,7 +1280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="1">
         <f t="shared" si="2"/>
@@ -1208,7 +1306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="1">
         <f t="shared" si="2"/>
@@ -1242,7 +1340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="1">
         <f t="shared" si="2"/>
@@ -1276,7 +1374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="1">
         <f t="shared" si="2"/>
@@ -1300,7 +1398,7 @@
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="1">
         <f t="shared" si="2"/>
@@ -1324,7 +1422,7 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1362,14 +1460,14 @@
       <c r="M23" t="s">
         <v>30</v>
       </c>
+      <c r="P23" t="s">
+        <v>36</v>
+      </c>
       <c r="Q23" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1408,7 +1506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="1">
         <f t="shared" si="2"/>
@@ -1436,7 +1534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="1">
         <f t="shared" si="2"/>
@@ -1464,7 +1562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="1">
         <f t="shared" si="2"/>
@@ -1488,7 +1586,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="1">
         <f t="shared" si="2"/>
@@ -1512,11 +1610,11 @@
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
@@ -1524,4 +1622,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B241D8-AE3B-4CC8-9077-CCD3A9BC4263}">
+  <dimension ref="B2:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" location="eop-quick-facts-section" xr:uid="{AD43EFA2-977D-4EED-8785-5D2B45C105E1}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{9FD3D809-5D98-4194-9BA3-8AF4571BEACF}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{2B342014-3E27-4069-AD61-267F6AA4D53B}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{4162B929-EE03-4A0C-B095-8A4BA80A76BF}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{98E3ED25-2D06-4FB2-97FB-46CF8DFE9911}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+</worksheet>
 </file>